--- a/excercises/excercises/60.MF Separator.xlsx
+++ b/excercises/excercises/60.MF Separator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr updateLinks="always" codeName="Workbook_Separation" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6AC55D-7C6E-4FB2-A26F-DA5305BAD9FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1589C887-151A-4703-9351-D1FA4E021C63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Separation" sheetId="110" r:id="rId1"/>
@@ -42,7 +42,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -803,7 +802,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -822,7 +821,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Естественная сепарация 100 мм</c:v>
+                  <c:v>Естественная сепарация 125 мм</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1041,7 +1040,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Естественная сепарация 112,5 мм</c:v>
+                  <c:v>Естественная сепарация 112.5 мм</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1339,7 +1338,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1377,7 +1376,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="232971584"/>
@@ -1461,7 +1460,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1499,7 +1498,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="232971008"/>
@@ -1541,7 +1540,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1571,7 +1570,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1652,7 +1651,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1671,7 +1670,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Естественная сепарация 100 мм</c:v>
+                  <c:v>Естественная сепарация 125 мм</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2013,82 +2012,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.98451999324269768</c:v>
+                  <c:v>0.98446375012281007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97051966744526419</c:v>
+                  <c:v>0.97632718879489055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9548561552989091</c:v>
+                  <c:v>0.97054492860948816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94198517565276751</c:v>
+                  <c:v>0.97237017920581459</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94077103888576652</c:v>
+                  <c:v>0.98276841389020519</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94495294802749263</c:v>
+                  <c:v>0.99189590449332188</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94369131184406574</c:v>
+                  <c:v>0.99535569558857451</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93901624687082053</c:v>
+                  <c:v>0.99342417816091488</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93114461491367329</c:v>
+                  <c:v>0.98629509134626192</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92030223784425513</c:v>
+                  <c:v>0.97441064682859779</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90693746933564678</c:v>
+                  <c:v>0.95930571328397363</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.89154908585050108</c:v>
+                  <c:v>0.94273959554405196</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87459904378308495</c:v>
+                  <c:v>0.92534084019726559</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.85647289874143961</c:v>
+                  <c:v>0.90755464608770964</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.83746628005707946</c:v>
+                  <c:v>0.88967292649056173</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.81778497507556336</c:v>
+                  <c:v>0.87186497359289639</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.79755147651944325</c:v>
+                  <c:v>0.85420440906653683</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.7768138979611845</c:v>
+                  <c:v>0.83669117532220094</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.75555493075309754</c:v>
+                  <c:v>0.81926861208496582</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.73369955682438059</c:v>
+                  <c:v>0.80183612981133034</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7111208593220667</c:v>
+                  <c:v>0.7842581149179535</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.68764366160288126</c:v>
+                  <c:v>0.76636970571109231</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.65664347643538701</c:v>
+                  <c:v>0.74798005647970378</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6118137933815978</c:v>
+                  <c:v>0.7288736939974847</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.54174835028954771</c:v>
+                  <c:v>0.69259947373112341</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.47222701029548914</c:v>
+                  <c:v>0.66696646049663388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,7 +2185,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2224,7 +2223,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="233646336"/>
@@ -2308,7 +2307,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2346,7 +2345,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="233645760"/>
@@ -2388,7 +2387,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2418,7 +2417,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3545,16 +3544,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>33219</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>233322</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447837</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>154880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>538683</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>20410</xdr:rowOff>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3584,15 +3583,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>218916</xdr:colOff>
+      <xdr:colOff>50828</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>222117</xdr:rowOff>
+      <xdr:rowOff>9205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>577104</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>9205</xdr:rowOff>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4034,20 +4033,20 @@
   </sheetPr>
   <dimension ref="A1:T160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="4" width="9.86328125" customWidth="1"/>
-    <col min="5" max="9" width="15.73046875" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" customWidth="1"/>
-    <col min="11" max="11" width="10.1328125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4059,17 +4058,17 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
@@ -4086,7 +4085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
@@ -4103,7 +4102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
@@ -4141,7 +4140,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
@@ -4183,7 +4182,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
@@ -4215,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>24</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>30</v>
       </c>
@@ -4237,14 +4236,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:20" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
         <v>25</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B20" s="13" t="s">
         <v>26</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
         <v>27</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
         <v>28</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
         <v>15</v>
       </c>
@@ -4314,27 +4313,27 @@
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
     </row>
-    <row r="26" spans="1:20" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5">
         <v>0.9</v>
       </c>
       <c r="H30" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="39.4" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C31" s="21" t="s">
         <v>0</v>
       </c>
@@ -4342,12 +4341,12 @@
         <v>13</v>
       </c>
       <c r="E31" s="22" t="str">
-        <f>"Естественная сепарация "&amp;Dintake_&amp;" мм"</f>
-        <v>Естественная сепарация 100 мм</v>
+        <f>"Естественная сепарация "&amp;Dcas_&amp;" мм"</f>
+        <v>Естественная сепарация 125 мм</v>
       </c>
       <c r="F31" s="22" t="str">
         <f>"Естественная сепарация "&amp;Dcas_*cf_dcas_&amp;" мм"</f>
-        <v>Естественная сепарация 112,5 мм</v>
+        <v>Естественная сепарация 112.5 мм</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>31</v>
@@ -4359,7 +4358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>1</v>
       </c>
@@ -4380,14 +4379,14 @@
       </c>
       <c r="H32" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G32,C32)</f>
-        <v>0.22168786705076196</v>
+        <v>0.21886004511956411</v>
       </c>
       <c r="I32" s="20">
         <f>[1]!MF_ksep_total_d(E32,H32)</f>
-        <v>0.98451999324269768</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.98446375012281007</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>5</v>
       </c>
@@ -4408,14 +4407,14 @@
       </c>
       <c r="H33" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G33,C33)</f>
-        <v>0.47394638627697666</v>
+        <v>0.57757708946094755</v>
       </c>
       <c r="I33" s="20">
         <f>[1]!MF_ksep_total_d(E33,H33)</f>
-        <v>0.97051966744526419</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.97632718879489055</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>10</v>
       </c>
@@ -4436,14 +4435,14 @@
       </c>
       <c r="H34" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G34,C34)</f>
-        <v>0.5551445446958797</v>
+        <v>0.70974450046952098</v>
       </c>
       <c r="I34" s="20">
         <f>[1]!MF_ksep_total_d(E34,H34)</f>
-        <v>0.9548561552989091</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.97054492860948816</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>20</v>
       </c>
@@ -4464,14 +4463,14 @@
       </c>
       <c r="H35" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G35,C35)</f>
-        <v>0.6647428703553484</v>
+        <v>0.84033228547564165</v>
       </c>
       <c r="I35" s="20">
         <f>[1]!MF_ksep_total_d(E35,H35)</f>
-        <v>0.94198517565276751</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.97237017920581459</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>30</v>
       </c>
@@ -4492,14 +4491,14 @@
       </c>
       <c r="H36" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G36,C36)</f>
-        <v>0.7466209536979993</v>
+        <v>0.92628398721446825</v>
       </c>
       <c r="I36" s="20">
         <f>[1]!MF_ksep_total_d(E36,H36)</f>
-        <v>0.94077103888576652</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.98276841389020519</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>40</v>
       </c>
@@ -4520,14 +4519,14 @@
       </c>
       <c r="H37" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G37,C37)</f>
-        <v>0.79668265943909877</v>
+        <v>0.97006736806010485</v>
       </c>
       <c r="I37" s="20">
         <f>[1]!MF_ksep_total_d(E37,H37)</f>
-        <v>0.94495294802749263</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.99189590449332188</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
         <v>50</v>
       </c>
@@ -4548,14 +4547,14 @@
       </c>
       <c r="H38" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G38,C38)</f>
-        <v>0.82155686847030585</v>
+        <v>0.98528212519075342</v>
       </c>
       <c r="I38" s="20">
         <f>[1]!MF_ksep_total_d(E38,H38)</f>
-        <v>0.94369131184406574</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.99535569558857451</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
         <v>60</v>
       </c>
@@ -4576,14 +4575,14 @@
       </c>
       <c r="H39" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G39,C39)</f>
-        <v>0.82852382027077198</v>
+        <v>0.98150988173591414</v>
       </c>
       <c r="I39" s="20">
         <f>[1]!MF_ksep_total_d(E39,H39)</f>
-        <v>0.93901624687082053</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.99342417816091488</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
         <v>70</v>
       </c>
@@ -4604,14 +4603,14 @@
       </c>
       <c r="H40" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G40,C40)</f>
-        <v>0.82420434855336455</v>
+        <v>0.9650098050896101</v>
       </c>
       <c r="I40" s="20">
         <f>[1]!MF_ksep_total_d(E40,H40)</f>
-        <v>0.93114461491367329</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.98629509134626192</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
         <v>80</v>
       </c>
@@ -4632,14 +4631,14 @@
       </c>
       <c r="H41" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G41,C41)</f>
-        <v>0.81211831552643088</v>
+        <v>0.93967495888985186</v>
       </c>
       <c r="I41" s="20">
         <f>[1]!MF_ksep_total_d(E41,H41)</f>
-        <v>0.92030223784425513</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.97441064682859779</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C42" s="2">
         <v>90</v>
       </c>
@@ -4660,14 +4659,14 @@
       </c>
       <c r="H42" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G42,C42)</f>
-        <v>0.79483185917365151</v>
+        <v>0.91028428855116461</v>
       </c>
       <c r="I42" s="20">
         <f>[1]!MF_ksep_total_d(E42,H42)</f>
-        <v>0.90693746933564678</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.95930571328397363</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C43" s="2">
         <v>100</v>
       </c>
@@ -4688,14 +4687,14 @@
       </c>
       <c r="H43" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G43,C43)</f>
-        <v>0.77416371916508353</v>
+        <v>0.88076193840460915</v>
       </c>
       <c r="I43" s="20">
         <f>[1]!MF_ksep_total_d(E43,H43)</f>
-        <v>0.89154908585050108</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.94273959554405196</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C44" s="2">
         <v>110</v>
       </c>
@@ -4716,14 +4715,14 @@
       </c>
       <c r="H44" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G44,C44)</f>
-        <v>0.75136609819623601</v>
+        <v>0.85197243492278329</v>
       </c>
       <c r="I44" s="20">
         <f>[1]!MF_ksep_total_d(E44,H44)</f>
-        <v>0.87459904378308495</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.92534084019726559</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C45" s="2">
         <v>120</v>
       </c>
@@ -4744,14 +4743,14 @@
       </c>
       <c r="H45" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G45,C45)</f>
-        <v>0.7272686695164774</v>
+        <v>0.82433460894539379</v>
       </c>
       <c r="I45" s="20">
         <f>[1]!MF_ksep_total_d(E45,H45)</f>
-        <v>0.85647289874143961</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.90755464608770964</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C46" s="2">
         <v>130</v>
       </c>
@@ -4772,14 +4771,14 @@
       </c>
       <c r="H46" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G46,C46)</f>
-        <v>0.70238842969469406</v>
+        <v>0.79798275947991659</v>
       </c>
       <c r="I46" s="20">
         <f>[1]!MF_ksep_total_d(E46,H46)</f>
-        <v>0.83746628005707946</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.88967292649056173</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C47" s="2">
         <v>140</v>
       </c>
@@ -4800,14 +4799,14 @@
       </c>
       <c r="H47" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G47,C47)</f>
-        <v>0.67701163620779625</v>
+        <v>0.7728720639757134</v>
       </c>
       <c r="I47" s="20">
         <f>[1]!MF_ksep_total_d(E47,H47)</f>
-        <v>0.81778497507556336</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.87186497359289639</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C48" s="2">
         <v>150</v>
       </c>
@@ -4828,14 +4827,14 @@
       </c>
       <c r="H48" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G48,C48)</f>
-        <v>0.6512539990018873</v>
+        <v>0.74884662813515046</v>
       </c>
       <c r="I48" s="20">
         <f>[1]!MF_ksep_total_d(E48,H48)</f>
-        <v>0.79755147651944325</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.85420440906653683</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C49" s="2">
         <v>160</v>
       </c>
@@ -4856,14 +4855,14 @@
       </c>
       <c r="H49" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G49,C49)</f>
-        <v>0.62510420390159216</v>
+        <v>0.72568277648923218</v>
       </c>
       <c r="I49" s="20">
         <f>[1]!MF_ksep_total_d(E49,H49)</f>
-        <v>0.7768138979611845</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.83669117532220094</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C50" s="2">
         <v>170</v>
       </c>
@@ -4884,14 +4883,14 @@
       </c>
       <c r="H50" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G50,C50)</f>
-        <v>0.59845466437459327</v>
+        <v>0.7031159350361591</v>
       </c>
       <c r="I50" s="20">
         <f>[1]!MF_ksep_total_d(E50,H50)</f>
-        <v>0.75555493075309754</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.81926861208496582</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C51" s="2">
         <v>180</v>
       </c>
@@ -4912,14 +4911,14 @@
       </c>
       <c r="H51" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G51,C51)</f>
-        <v>0.5711224145039332</v>
+        <v>0.68085654997192446</v>
       </c>
       <c r="I51" s="20">
         <f>[1]!MF_ksep_total_d(E51,H51)</f>
-        <v>0.73369955682438059</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.80183612981133034</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C52" s="2">
         <v>190</v>
       </c>
@@ -4940,14 +4939,14 @@
       </c>
       <c r="H52" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G52,C52)</f>
-        <v>0.54286231674791074</v>
+        <v>0.65859859145455146</v>
       </c>
       <c r="I52" s="20">
         <f>[1]!MF_ksep_total_d(E52,H52)</f>
-        <v>0.7111208593220667</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.7842581149179535</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="2">
         <v>200</v>
       </c>
@@ -4968,14 +4967,14 @@
       </c>
       <c r="H53" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G53,C53)</f>
-        <v>0.51337422985886294</v>
+        <v>0.63602300350281959</v>
       </c>
       <c r="I53" s="20">
         <f>[1]!MF_ksep_total_d(E53,H53)</f>
-        <v>0.68764366160288126</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.76636970571109231</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C54" s="2">
         <v>210</v>
       </c>
@@ -4996,14 +4995,14 @@
       </c>
       <c r="H54" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G54,C54)</f>
-        <v>0.47246865177440273</v>
+        <v>0.61279774385884811</v>
       </c>
       <c r="I54" s="20">
         <f>[1]!MF_ksep_total_d(E54,H54)</f>
-        <v>0.65664347643538701</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.74798005647970378</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C55" s="2">
         <v>220</v>
       </c>
@@ -5024,14 +5023,14 @@
       </c>
       <c r="H55" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G55,C55)</f>
-        <v>0.41094148119016038</v>
+        <v>0.58857564359255143</v>
       </c>
       <c r="I55" s="20">
         <f>[1]!MF_ksep_total_d(E55,H55)</f>
-        <v>0.6118137933815978</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.7288736939974847</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C56" s="2">
         <v>230</v>
       </c>
@@ -5052,14 +5051,14 @@
       </c>
       <c r="H56" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G56,C56)</f>
-        <v>0.31226880477299007</v>
+        <v>0.53866193067087542</v>
       </c>
       <c r="I56" s="20">
         <f>[1]!MF_ksep_total_d(E56,H56)</f>
-        <v>0.54174835028954771</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.69259947373112341</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="2">
         <v>240</v>
       </c>
@@ -5080,32 +5079,32 @@
       </c>
       <c r="H57" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G57,C57)</f>
-        <v>0.21571857790156515</v>
+        <v>0.50510537093910157</v>
       </c>
       <c r="I57" s="20">
         <f>[1]!MF_ksep_total_d(E57,H57)</f>
-        <v>0.47222701029548914</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0.66696646049663388</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="F70" s="3"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
@@ -5113,7 +5112,7 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="9"/>
@@ -5121,7 +5120,7 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
@@ -5129,7 +5128,7 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="9"/>
@@ -5137,7 +5136,7 @@
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
@@ -5145,7 +5144,7 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
@@ -5153,7 +5152,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
@@ -5161,7 +5160,7 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="9"/>
@@ -5169,7 +5168,7 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
@@ -5177,7 +5176,7 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="9"/>
@@ -5185,7 +5184,7 @@
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
@@ -5193,7 +5192,7 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
@@ -5201,7 +5200,7 @@
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
@@ -5209,7 +5208,7 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
@@ -5217,7 +5216,7 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
@@ -5225,7 +5224,7 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="9"/>
@@ -5233,7 +5232,7 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="9"/>
@@ -5241,7 +5240,7 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
@@ -5249,7 +5248,7 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
@@ -5257,7 +5256,7 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="9"/>
@@ -5265,7 +5264,7 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="9"/>
@@ -5273,15 +5272,15 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K149" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K160" s="6"/>
     </row>
   </sheetData>

--- a/excercises/excercises/60.MF Separator.xlsx
+++ b/excercises/excercises/60.MF Separator.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr updateLinks="always" codeName="Workbook_Separation" hidePivotFieldList="1"/>
+  <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1589C887-151A-4703-9351-D1FA4E021C63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F8896-41C8-444E-B73D-DBEA644512E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11160" yWindow="2775" windowWidth="21930" windowHeight="17160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Separation" sheetId="110" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2081,7 +2082,7 @@
                   <c:v>0.74798005647970378</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7288736939974847</c:v>
+                  <c:v>0.72887369399748458</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.69259947373112341</c:v>
@@ -4034,7 +4035,7 @@
   <dimension ref="A1:T160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4055,7 +4056,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4293,7 +4294,7 @@
       </c>
       <c r="C25" s="18" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,900;gamma_oil:0,875;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:120,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.900;gamma_oil:0.875;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:120.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -5023,11 +5024,11 @@
       </c>
       <c r="H55" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G55,C55)</f>
-        <v>0.58857564359255143</v>
+        <v>0.58857564359255132</v>
       </c>
       <c r="I55" s="20">
         <f>[1]!MF_ksep_total_d(E55,H55)</f>
-        <v>0.7288736939974847</v>
+        <v>0.72887369399748458</v>
       </c>
     </row>
     <row r="56" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">

--- a/excercises/excercises/60.MF Separator.xlsx
+++ b/excercises/excercises/60.MF Separator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F8896-41C8-444E-B73D-DBEA644512E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75313CF0-838B-4D49-86AC-E7E48927BE52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="2775" windowWidth="21930" windowHeight="17160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Separation" sheetId="110" r:id="rId1"/>
@@ -945,82 +945,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.98011079860897921</c:v>
+                  <c:v>0.98028859325319295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94395945244802038</c:v>
+                  <c:v>0.94470466426492072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8985201953514792</c:v>
+                  <c:v>0.8999236735744528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8269542413349299</c:v>
+                  <c:v>0.82928830016754196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76624364966770409</c:v>
+                  <c:v>0.7692645306855268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72925549871621176</c:v>
+                  <c:v>0.73264505573305816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68444463133306899</c:v>
+                  <c:v>0.68822517844965314</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64436020661600457</c:v>
+                  <c:v>0.6484331636991052</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60832145437210394</c:v>
+                  <c:v>0.61260517877765985</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5758087735957218</c:v>
+                  <c:v>0.58023469995319188</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54640847117135971</c:v>
+                  <c:v>0.55091855125540112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.51978081755262706</c:v>
+                  <c:v>0.52432571438933961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.49564015483339596</c:v>
+                  <c:v>0.50017790833451481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47374179195289856</c:v>
+                  <c:v>0.47823679654791729</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45387298021987288</c:v>
+                  <c:v>0.45829517837335598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.43584647203678961</c:v>
+                  <c:v>0.44017070266659086</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41949578518134079</c:v>
+                  <c:v>0.42370124661810937</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40467163312700771</c:v>
+                  <c:v>0.40874143295390408</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.39123917635307759</c:v>
+                  <c:v>0.39515994859888792</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.37907586644426861</c:v>
+                  <c:v>0.38283744199144643</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.36806972765220403</c:v>
+                  <c:v>0.37166484739505279</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.35811796751634128</c:v>
+                  <c:v>0.36154203037267374</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.34912583921405638</c:v>
+                  <c:v>0.35237667892881852</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.34100569939517866</c:v>
+                  <c:v>0.34408338541161276</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3336762198794978</c:v>
+                  <c:v>0.33658287854462676</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3270617219359937</c:v>
+                  <c:v>0.32980137505356533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,82 +1164,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.96934128354684312</c:v>
+                  <c:v>0.96969309201120257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89391564324298511</c:v>
+                  <c:v>0.89538284181503536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81932627425263682</c:v>
+                  <c:v>0.82175193507412092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71824219376922271</c:v>
+                  <c:v>0.72173371190572988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.63120816627074927</c:v>
+                  <c:v>0.6353640953408991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56160783604345266</c:v>
+                  <c:v>0.56608002741059726</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50529573013043705</c:v>
+                  <c:v>0.50984107899469877</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45951755365392111</c:v>
+                  <c:v>0.46396398547128626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4222662232100336</c:v>
+                  <c:v>0.42649397747931994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39199304460891238</c:v>
+                  <c:v>0.39592289447932094</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36745610486142288</c:v>
+                  <c:v>0.37104126500460533</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34763190637299957</c:v>
+                  <c:v>0.35085212367613439</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33165981351674256</c:v>
+                  <c:v>0.33451685442141121</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31880505327244135</c:v>
+                  <c:v>0.32131913986811034</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.30843292141766687</c:v>
+                  <c:v>0.31063984342299866</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.29999011929681263</c:v>
+                  <c:v>0.30193884651707981</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2929908258807683</c:v>
+                  <c:v>0.29474150326600235</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.28700602849207435</c:v>
+                  <c:v>0.28862827155793003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28165516502070975</c:v>
+                  <c:v>0.28322659636764946</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27659944928625091</c:v>
+                  <c:v>0.27820443226268754</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.27153645057128806</c:v>
+                  <c:v>0.27326498659267173</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26619562728587187</c:v>
+                  <c:v>0.26814239056053424</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26033460091277139</c:v>
+                  <c:v>0.26259808920658134</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2537360164069149</c:v>
+                  <c:v>0.25641779927108477</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.22811269652889443</c:v>
+                  <c:v>0.23264624777464604</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.21584282503821672</c:v>
+                  <c:v>0.22129049898017428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,82 +1794,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.98011079860897921</c:v>
+                  <c:v>0.98028859325319295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94395945244802038</c:v>
+                  <c:v>0.94470466426492072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8985201953514792</c:v>
+                  <c:v>0.8999236735744528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8269542413349299</c:v>
+                  <c:v>0.82928830016754196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76624364966770409</c:v>
+                  <c:v>0.7692645306855268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72925549871621176</c:v>
+                  <c:v>0.73264505573305816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68444463133306899</c:v>
+                  <c:v>0.68822517844965314</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64436020661600457</c:v>
+                  <c:v>0.6484331636991052</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60832145437210394</c:v>
+                  <c:v>0.61260517877765985</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5758087735957218</c:v>
+                  <c:v>0.58023469995319188</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54640847117135971</c:v>
+                  <c:v>0.55091855125540112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.51978081755262706</c:v>
+                  <c:v>0.52432571438933961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.49564015483339596</c:v>
+                  <c:v>0.50017790833451481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47374179195289856</c:v>
+                  <c:v>0.47823679654791729</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45387298021987288</c:v>
+                  <c:v>0.45829517837335598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.43584647203678961</c:v>
+                  <c:v>0.44017070266659086</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41949578518134079</c:v>
+                  <c:v>0.42370124661810937</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40467163312700771</c:v>
+                  <c:v>0.40874143295390408</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.39123917635307759</c:v>
+                  <c:v>0.39515994859888792</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.37907586644426861</c:v>
+                  <c:v>0.38283744199144643</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.36806972765220403</c:v>
+                  <c:v>0.37166484739505279</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.35811796751634128</c:v>
+                  <c:v>0.36154203037267374</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.34912583921405638</c:v>
+                  <c:v>0.35237667892881852</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.34100569939517866</c:v>
+                  <c:v>0.34408338541161276</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3336762198794978</c:v>
+                  <c:v>0.33658287854462676</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3270617219359937</c:v>
+                  <c:v>0.32980137505356533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,82 +2013,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.98446375012281007</c:v>
+                  <c:v>0.98445359896707363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97632718879489055</c:v>
+                  <c:v>0.97591984056482128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97054492860948816</c:v>
+                  <c:v>0.97003010108284615</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97237017920581459</c:v>
+                  <c:v>0.97071387015207033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98276841389020519</c:v>
+                  <c:v>0.98047272335789459</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99189590449332188</c:v>
+                  <c:v>0.98991891758673811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99535569558857451</c:v>
+                  <c:v>0.99421979561581852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99342417816091488</c:v>
+                  <c:v>0.99356149569244101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98629509134626192</c:v>
+                  <c:v>0.98793888395012786</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97441064682859779</c:v>
+                  <c:v>0.9776543185194656</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95930571328397363</c:v>
+                  <c:v>0.96413143156137637</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94273959554405196</c:v>
+                  <c:v>0.94904899578538693</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92534084019726559</c:v>
+                  <c:v>0.93300931408916421</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.90755464608770964</c:v>
+                  <c:v>0.91645437555802445</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88967292649056173</c:v>
+                  <c:v>0.89968776710598497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.87186497359289639</c:v>
+                  <c:v>0.88289971077254192</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.85420440906653683</c:v>
+                  <c:v>0.86619033116026256</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83669117532220094</c:v>
+                  <c:v>0.84958934410111475</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.81926861208496582</c:v>
+                  <c:v>0.83307177120046716</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.80183612981133034</c:v>
+                  <c:v>0.81656987937785375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7842581149179535</c:v>
+                  <c:v>0.79998176479512573</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.76636970571109231</c:v>
+                  <c:v>0.78317706607958615</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.74798005647970378</c:v>
+                  <c:v>0.76600030321663681</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.72887369399748458</c:v>
+                  <c:v>0.74827233784748026</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.69259947373112341</c:v>
+                  <c:v>0.7162774481994818</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.66696646049663388</c:v>
+                  <c:v>0.69315960823790324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4034,8 +4034,8 @@
   </sheetPr>
   <dimension ref="A1:T160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="C25" s="18" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.900;gamma_oil:0.875;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:120.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,900;gamma_oil:0,875;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:120,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -4368,23 +4368,23 @@
       </c>
       <c r="E32" s="20">
         <f>[1]!MF_ksep_natural_d(C32,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.98011079860897921</v>
+        <v>0.98028859325319295</v>
       </c>
       <c r="F32" s="20">
         <f>[1]!MF_ksep_natural_d(C32,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.96934128354684312</v>
+        <v>0.96969309201120257</v>
       </c>
       <c r="G32" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F32)</f>
-        <v>2.1780514695479643E-2</v>
+        <v>2.0948017252939693E-2</v>
       </c>
       <c r="H32" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G32,C32)</f>
-        <v>0.21886004511956411</v>
+        <v>0.21129926277612693</v>
       </c>
       <c r="I32" s="20">
         <f>[1]!MF_ksep_total_d(E32,H32)</f>
-        <v>0.98446375012281007</v>
+        <v>0.98445359896707363</v>
       </c>
     </row>
     <row r="33" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4396,23 +4396,23 @@
       </c>
       <c r="E33" s="20">
         <f>[1]!MF_ksep_natural_d(C33,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.94395945244802038</v>
+        <v>0.94470466426492072</v>
       </c>
       <c r="F33" s="20">
         <f>[1]!MF_ksep_natural_d(C33,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.89391564324298511</v>
+        <v>0.89538284181503536</v>
       </c>
       <c r="G33" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F33)</f>
-        <v>7.5364273479516533E-2</v>
+        <v>7.2310973967460793E-2</v>
       </c>
       <c r="H33" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G33,C33)</f>
-        <v>0.57757708946094755</v>
+        <v>0.56451734825253441</v>
       </c>
       <c r="I33" s="20">
         <f>[1]!MF_ksep_total_d(E33,H33)</f>
-        <v>0.97632718879489055</v>
+        <v>0.97591984056482128</v>
       </c>
     </row>
     <row r="34" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4424,23 +4424,23 @@
       </c>
       <c r="E34" s="20">
         <f>[1]!MF_ksep_natural_d(C34,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.8985201953514792</v>
+        <v>0.8999236735744528</v>
       </c>
       <c r="F34" s="20">
         <f>[1]!MF_ksep_natural_d(C34,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.81932627425263682</v>
+        <v>0.82175193507412092</v>
       </c>
       <c r="G34" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F34)</f>
-        <v>0.12835392977850205</v>
+        <v>0.12320437112062489</v>
       </c>
       <c r="H34" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G34,C34)</f>
-        <v>0.70974450046952098</v>
+        <v>0.70052958589112235</v>
       </c>
       <c r="I34" s="20">
         <f>[1]!MF_ksep_total_d(E34,H34)</f>
-        <v>0.97054492860948816</v>
+        <v>0.97003010108284615</v>
       </c>
     </row>
     <row r="35" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4452,23 +4452,23 @@
       </c>
       <c r="E35" s="20">
         <f>[1]!MF_ksep_natural_d(C35,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.8269542413349299</v>
+        <v>0.82928830016754196</v>
       </c>
       <c r="F35" s="20">
         <f>[1]!MF_ksep_natural_d(C35,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.71824219376922271</v>
+        <v>0.72173371190572988</v>
       </c>
       <c r="G35" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F35)</f>
-        <v>0.20016591524801591</v>
+        <v>0.19233657904214188</v>
       </c>
       <c r="H35" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G35,C35)</f>
-        <v>0.84033228547564165</v>
+        <v>0.8284468500010721</v>
       </c>
       <c r="I35" s="20">
         <f>[1]!MF_ksep_total_d(E35,H35)</f>
-        <v>0.97237017920581459</v>
+        <v>0.97071387015207033</v>
       </c>
     </row>
     <row r="36" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4480,23 +4480,23 @@
       </c>
       <c r="E36" s="20">
         <f>[1]!MF_ksep_natural_d(C36,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.76624364966770409</v>
+        <v>0.7692645306855268</v>
       </c>
       <c r="F36" s="20">
         <f>[1]!MF_ksep_natural_d(C36,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.63120816627074927</v>
+        <v>0.6353640953408991</v>
       </c>
       <c r="G36" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F36)</f>
-        <v>0.26199648528618491</v>
+        <v>0.25203492301700847</v>
       </c>
       <c r="H36" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G36,C36)</f>
-        <v>0.92628398721446825</v>
+        <v>0.91536941979435615</v>
       </c>
       <c r="I36" s="20">
         <f>[1]!MF_ksep_total_d(E36,H36)</f>
-        <v>0.98276841389020519</v>
+        <v>0.98047272335789459</v>
       </c>
     </row>
     <row r="37" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4508,23 +4508,23 @@
       </c>
       <c r="E37" s="20">
         <f>[1]!MF_ksep_natural_d(C37,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.72925549871621176</v>
+        <v>0.73264505573305816</v>
       </c>
       <c r="F37" s="20">
         <f>[1]!MF_ksep_natural_d(C37,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.56160783604345266</v>
+        <v>0.56608002741059726</v>
       </c>
       <c r="G37" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F37)</f>
-        <v>0.31144183690884808</v>
+        <v>0.29992380204400415</v>
       </c>
       <c r="H37" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G37,C37)</f>
-        <v>0.97006736806010485</v>
+        <v>0.96229326358297551</v>
       </c>
       <c r="I37" s="20">
         <f>[1]!MF_ksep_total_d(E37,H37)</f>
-        <v>0.99189590449332188</v>
+        <v>0.98991891758673811</v>
       </c>
     </row>
     <row r="38" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4536,23 +4536,23 @@
       </c>
       <c r="E38" s="20">
         <f>[1]!MF_ksep_natural_d(C38,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.68444463133306899</v>
+        <v>0.68822517844965314</v>
       </c>
       <c r="F38" s="20">
         <f>[1]!MF_ksep_natural_d(C38,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.50529573013043705</v>
+        <v>0.50984107899469877</v>
       </c>
       <c r="G38" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F38)</f>
-        <v>0.35144699016586095</v>
+        <v>0.3387959450596788</v>
       </c>
       <c r="H38" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G38,C38)</f>
-        <v>0.98528212519075342</v>
+        <v>0.98146032333387734</v>
       </c>
       <c r="I38" s="20">
         <f>[1]!MF_ksep_total_d(E38,H38)</f>
-        <v>0.99535569558857451</v>
+        <v>0.99421979561581852</v>
       </c>
     </row>
     <row r="39" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4564,23 +4564,23 @@
       </c>
       <c r="E39" s="20">
         <f>[1]!MF_ksep_natural_d(C39,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.64436020661600457</v>
+        <v>0.6484331636991052</v>
       </c>
       <c r="F39" s="20">
         <f>[1]!MF_ksep_natural_d(C39,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.45951755365392111</v>
+        <v>0.46396398547128626</v>
       </c>
       <c r="G39" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F39)</f>
-        <v>0.38396864667429409</v>
+        <v>0.3705060141633435</v>
       </c>
       <c r="H39" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G39,C39)</f>
-        <v>0.98150988173591414</v>
+        <v>0.9816862580802459</v>
       </c>
       <c r="I39" s="20">
         <f>[1]!MF_ksep_total_d(E39,H39)</f>
-        <v>0.99342417816091488</v>
+        <v>0.99356149569244101</v>
       </c>
     </row>
     <row r="40" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4592,23 +4592,23 @@
       </c>
       <c r="E40" s="20">
         <f>[1]!MF_ksep_natural_d(C40,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.60832145437210394</v>
+        <v>0.61260517877765985</v>
       </c>
       <c r="F40" s="20">
         <f>[1]!MF_ksep_natural_d(C40,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.4222662232100336</v>
+        <v>0.42649397747931994</v>
       </c>
       <c r="G40" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F40)</f>
-        <v>0.41043267531029121</v>
+        <v>0.39640513835554531</v>
       </c>
       <c r="H40" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G40,C40)</f>
-        <v>0.9650098050896101</v>
+        <v>0.96886608857646594</v>
       </c>
       <c r="I40" s="20">
         <f>[1]!MF_ksep_total_d(E40,H40)</f>
-        <v>0.98629509134626192</v>
+        <v>0.98793888395012786</v>
       </c>
     </row>
     <row r="41" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4620,23 +4620,23 @@
       </c>
       <c r="E41" s="20">
         <f>[1]!MF_ksep_natural_d(C41,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.5758087735957218</v>
+        <v>0.58023469995319188</v>
       </c>
       <c r="F41" s="20">
         <f>[1]!MF_ksep_natural_d(C41,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.39199304460891238</v>
+        <v>0.39592289447932094</v>
       </c>
       <c r="G41" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F41)</f>
-        <v>0.43193929684182331</v>
+        <v>0.41753575235159363</v>
       </c>
       <c r="H41" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G41,C41)</f>
-        <v>0.93967495888985186</v>
+        <v>0.94676624895377803</v>
       </c>
       <c r="I41" s="20">
         <f>[1]!MF_ksep_total_d(E41,H41)</f>
-        <v>0.97441064682859779</v>
+        <v>0.9776543185194656</v>
       </c>
     </row>
     <row r="42" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4648,23 +4648,23 @@
       </c>
       <c r="E42" s="20">
         <f>[1]!MF_ksep_natural_d(C42,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.54640847117135971</v>
+        <v>0.55091855125540112</v>
       </c>
       <c r="F42" s="20">
         <f>[1]!MF_ksep_natural_d(C42,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.36745610486142288</v>
+        <v>0.37104126500460533</v>
       </c>
       <c r="G42" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F42)</f>
-        <v>0.44937078904303268</v>
+        <v>0.43473383813818256</v>
       </c>
       <c r="H42" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G42,C42)</f>
-        <v>0.91028428855116461</v>
+        <v>0.9201290355259748</v>
       </c>
       <c r="I42" s="20">
         <f>[1]!MF_ksep_total_d(E42,H42)</f>
-        <v>0.95930571328397363</v>
+        <v>0.96413143156137637</v>
       </c>
     </row>
     <row r="43" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4676,23 +4676,23 @@
       </c>
       <c r="E43" s="20">
         <f>[1]!MF_ksep_natural_d(C43,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.51978081755262706</v>
+        <v>0.52432571438933961</v>
       </c>
       <c r="F43" s="20">
         <f>[1]!MF_ksep_natural_d(C43,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.34763190637299957</v>
+        <v>0.35085212367613439</v>
       </c>
       <c r="G43" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F43)</f>
-        <v>0.46345426338426687</v>
+        <v>0.44868849431845587</v>
       </c>
       <c r="H43" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G43,C43)</f>
-        <v>0.88076193840460915</v>
+        <v>0.8928867803959526</v>
       </c>
       <c r="I43" s="20">
         <f>[1]!MF_ksep_total_d(E43,H43)</f>
-        <v>0.94273959554405196</v>
+        <v>0.94904899578538693</v>
       </c>
     </row>
     <row r="44" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4704,23 +4704,23 @@
       </c>
       <c r="E44" s="20">
         <f>[1]!MF_ksep_natural_d(C44,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.49564015483339596</v>
+        <v>0.50017790833451481</v>
       </c>
       <c r="F44" s="20">
         <f>[1]!MF_ksep_natural_d(C44,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.33165981351674256</v>
+        <v>0.33451685442141121</v>
       </c>
       <c r="G44" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F44)</f>
-        <v>0.47480113120584688</v>
+        <v>0.45997936906905212</v>
       </c>
       <c r="H44" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G44,C44)</f>
-        <v>0.85197243492278329</v>
+        <v>0.86597093840407813</v>
       </c>
       <c r="I44" s="20">
         <f>[1]!MF_ksep_total_d(E44,H44)</f>
-        <v>0.92534084019726559</v>
+        <v>0.93300931408916421</v>
       </c>
     </row>
     <row r="45" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4732,23 +4732,23 @@
       </c>
       <c r="E45" s="20">
         <f>[1]!MF_ksep_natural_d(C45,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.47374179195289856</v>
+        <v>0.47823679654791729</v>
       </c>
       <c r="F45" s="20">
         <f>[1]!MF_ksep_natural_d(C45,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.31880505327244135</v>
+        <v>0.32131913986811034</v>
       </c>
       <c r="G45" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F45)</f>
-        <v>0.48393338874297026</v>
+        <v>0.46910157817940118</v>
       </c>
       <c r="H45" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G45,C45)</f>
-        <v>0.82433460894539379</v>
+        <v>0.83987827449459418</v>
       </c>
       <c r="I45" s="20">
         <f>[1]!MF_ksep_total_d(E45,H45)</f>
-        <v>0.90755464608770964</v>
+        <v>0.91645437555802445</v>
       </c>
     </row>
     <row r="46" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4760,23 +4760,23 @@
       </c>
       <c r="E46" s="20">
         <f>[1]!MF_ksep_natural_d(C46,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.45387298021987288</v>
+        <v>0.45829517837335598</v>
       </c>
       <c r="F46" s="20">
         <f>[1]!MF_ksep_natural_d(C46,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.30843292141766687</v>
+        <v>0.31063984342299866</v>
       </c>
       <c r="G46" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F46)</f>
-        <v>0.4913019415208249</v>
+        <v>0.47648306646135158</v>
       </c>
       <c r="H46" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G46,C46)</f>
-        <v>0.79798275947991659</v>
+        <v>0.81482122940535195</v>
       </c>
       <c r="I46" s="20">
         <f>[1]!MF_ksep_total_d(E46,H46)</f>
-        <v>0.88967292649056173</v>
+        <v>0.89968776710598497</v>
       </c>
     </row>
     <row r="47" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4788,23 +4788,23 @@
       </c>
       <c r="E47" s="20">
         <f>[1]!MF_ksep_natural_d(C47,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.43584647203678961</v>
+        <v>0.44017070266659086</v>
       </c>
       <c r="F47" s="20">
         <f>[1]!MF_ksep_natural_d(C47,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.29999011929681263</v>
+        <v>0.30193884651707981</v>
       </c>
       <c r="G47" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F47)</f>
-        <v>0.49729986305629603</v>
+        <v>0.48249716177488</v>
       </c>
       <c r="H47" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G47,C47)</f>
-        <v>0.7728720639757134</v>
+        <v>0.79082857973808673</v>
       </c>
       <c r="I47" s="20">
         <f>[1]!MF_ksep_total_d(E47,H47)</f>
-        <v>0.87186497359289639</v>
+        <v>0.88289971077254192</v>
       </c>
     </row>
     <row r="48" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4816,23 +4816,23 @@
       </c>
       <c r="E48" s="20">
         <f>[1]!MF_ksep_natural_d(C48,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.41949578518134079</v>
+        <v>0.42370124661810937</v>
       </c>
       <c r="F48" s="20">
         <f>[1]!MF_ksep_natural_d(C48,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.2929908258807683</v>
+        <v>0.29474150326600235</v>
       </c>
       <c r="G48" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F48)</f>
-        <v>0.50227228952232417</v>
+        <v>0.48747193751428008</v>
       </c>
       <c r="H48" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G48,C48)</f>
-        <v>0.74884662813515046</v>
+        <v>0.76781197589878003</v>
       </c>
       <c r="I48" s="20">
         <f>[1]!MF_ksep_total_d(E48,H48)</f>
-        <v>0.85420440906653683</v>
+        <v>0.86619033116026256</v>
       </c>
     </row>
     <row r="49" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4844,23 +4844,23 @@
       </c>
       <c r="E49" s="20">
         <f>[1]!MF_ksep_natural_d(C49,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.40467163312700771</v>
+        <v>0.40874143295390408</v>
       </c>
       <c r="F49" s="20">
         <f>[1]!MF_ksep_natural_d(C49,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.28700602849207435</v>
+        <v>0.28862827155793003</v>
       </c>
       <c r="G49" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F49)</f>
-        <v>0.50652399939651538</v>
+        <v>0.49169737956000947</v>
       </c>
       <c r="H49" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G49,C49)</f>
-        <v>0.72568277648923218</v>
+        <v>0.74560934203400919</v>
       </c>
       <c r="I49" s="20">
         <f>[1]!MF_ksep_total_d(E49,H49)</f>
-        <v>0.83669117532220094</v>
+        <v>0.84958934410111475</v>
       </c>
     </row>
     <row r="50" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4872,23 +4872,23 @@
       </c>
       <c r="E50" s="20">
         <f>[1]!MF_ksep_natural_d(C50,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.39123917635307759</v>
+        <v>0.39515994859888792</v>
       </c>
       <c r="F50" s="20">
         <f>[1]!MF_ksep_natural_d(C50,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.28165516502070975</v>
+        <v>0.28322659636764946</v>
       </c>
       <c r="G50" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F50)</f>
-        <v>0.51032535098439513</v>
+        <v>0.4954309965004971</v>
       </c>
       <c r="H50" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G50,C50)</f>
-        <v>0.7031159350361591</v>
+        <v>0.72401260727882755</v>
       </c>
       <c r="I50" s="20">
         <f>[1]!MF_ksep_total_d(E50,H50)</f>
-        <v>0.81926861208496582</v>
+        <v>0.83307177120046716</v>
       </c>
     </row>
     <row r="51" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4900,23 +4900,23 @@
       </c>
       <c r="E51" s="20">
         <f>[1]!MF_ksep_natural_d(C51,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.37907586644426861</v>
+        <v>0.38283744199144643</v>
       </c>
       <c r="F51" s="20">
         <f>[1]!MF_ksep_natural_d(C51,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.27659944928625091</v>
+        <v>0.27820443226268754</v>
       </c>
       <c r="G51" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F51)</f>
-        <v>0.5139170242045964</v>
+        <v>0.49890229685079096</v>
       </c>
       <c r="H51" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G51,C51)</f>
-        <v>0.68085654997192446</v>
+        <v>0.70278475542321539</v>
       </c>
       <c r="I51" s="20">
         <f>[1]!MF_ksep_total_d(E51,H51)</f>
-        <v>0.80183612981133034</v>
+        <v>0.81656987937785375</v>
       </c>
     </row>
     <row r="52" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4928,23 +4928,23 @@
       </c>
       <c r="E52" s="20">
         <f>[1]!MF_ksep_natural_d(C52,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.36806972765220403</v>
+        <v>0.37166484739505279</v>
       </c>
       <c r="F52" s="20">
         <f>[1]!MF_ksep_natural_d(C52,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.27153645057128806</v>
+        <v>0.27326498659267173</v>
       </c>
       <c r="G52" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F52)</f>
-        <v>0.51751387138777605</v>
+        <v>0.50231642253968334</v>
       </c>
       <c r="H52" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G52,C52)</f>
-        <v>0.65859859145455146</v>
+        <v>0.68166951287757793</v>
       </c>
       <c r="I52" s="20">
         <f>[1]!MF_ksep_total_d(E52,H52)</f>
-        <v>0.7842581149179535</v>
+        <v>0.79998176479512573</v>
       </c>
     </row>
     <row r="53" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4956,23 +4956,23 @@
       </c>
       <c r="E53" s="20">
         <f>[1]!MF_ksep_natural_d(C53,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.35811796751634128</v>
+        <v>0.36154203037267374</v>
       </c>
       <c r="F53" s="20">
         <f>[1]!MF_ksep_natural_d(C53,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.26619562728587187</v>
+        <v>0.26814239056053424</v>
       </c>
       <c r="G53" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F53)</f>
-        <v>0.52130809024334035</v>
+        <v>0.50585714104850388</v>
       </c>
       <c r="H53" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G53,C53)</f>
-        <v>0.63602300350281959</v>
+        <v>0.6603959160428754</v>
       </c>
       <c r="I53" s="20">
         <f>[1]!MF_ksep_total_d(E53,H53)</f>
-        <v>0.76636970571109231</v>
+        <v>0.78317706607958615</v>
       </c>
     </row>
     <row r="54" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4984,23 +4984,23 @@
       </c>
       <c r="E54" s="20">
         <f>[1]!MF_ksep_natural_d(C54,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.34912583921405638</v>
+        <v>0.35237667892881852</v>
       </c>
       <c r="F54" s="20">
         <f>[1]!MF_ksep_natural_d(C54,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.26033460091277139</v>
+        <v>0.26259808920658134</v>
       </c>
       <c r="G54" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F54)</f>
-        <v>0.52547187091709935</v>
+        <v>0.50968934064012938</v>
       </c>
       <c r="H54" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G54,C54)</f>
-        <v>0.61279774385884811</v>
+        <v>0.63867932304179043</v>
       </c>
       <c r="I54" s="20">
         <f>[1]!MF_ksep_total_d(E54,H54)</f>
-        <v>0.74798005647970378</v>
+        <v>0.76600030321663681</v>
       </c>
     </row>
     <row r="55" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5012,23 +5012,23 @@
       </c>
       <c r="E55" s="20">
         <f>[1]!MF_ksep_natural_d(C55,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.34100569939517866</v>
+        <v>0.34408338541161276</v>
       </c>
       <c r="F55" s="20">
         <f>[1]!MF_ksep_natural_d(C55,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.2537360164069149</v>
+        <v>0.25641779927108477</v>
       </c>
       <c r="G55" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F55)</f>
-        <v>0.53015962642110936</v>
+        <v>0.51396113307256119</v>
       </c>
       <c r="H55" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G55,C55)</f>
-        <v>0.58857564359255132</v>
+        <v>0.61622002468943637</v>
       </c>
       <c r="I55" s="20">
         <f>[1]!MF_ksep_total_d(E55,H55)</f>
-        <v>0.72887369399748458</v>
+        <v>0.74827233784748026</v>
       </c>
     </row>
     <row r="56" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5040,23 +5040,23 @@
       </c>
       <c r="E56" s="20">
         <f>[1]!MF_ksep_natural_d(C56,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.3336762198794978</v>
+        <v>0.33658287854462676</v>
       </c>
       <c r="F56" s="20">
         <f>[1]!MF_ksep_natural_d(C56,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.22811269652889443</v>
+        <v>0.23264624777464604</v>
       </c>
       <c r="G56" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F56)</f>
-        <v>0.54836290299998702</v>
+        <v>0.53039193726613354</v>
       </c>
       <c r="H56" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G56,C56)</f>
-        <v>0.53866193067087542</v>
+        <v>0.57233158050232247</v>
       </c>
       <c r="I56" s="20">
         <f>[1]!MF_ksep_total_d(E56,H56)</f>
-        <v>0.69259947373112341</v>
+        <v>0.7162774481994818</v>
       </c>
     </row>
     <row r="57" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5068,23 +5068,23 @@
       </c>
       <c r="E57" s="20">
         <f>[1]!MF_ksep_natural_d(C57,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.3270617219359937</v>
+        <v>0.32980137505356533</v>
       </c>
       <c r="F57" s="20">
         <f>[1]!MF_ksep_natural_d(C57,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.21584282503821672</v>
+        <v>0.22129049898017428</v>
       </c>
       <c r="G57" s="20">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F57)</f>
-        <v>0.55707964483497785</v>
+        <v>0.53824098678826138</v>
       </c>
       <c r="H57" s="20">
         <f>[1]!MF_ksep_gasseparator_d(gassep_type,G57,C57)</f>
-        <v>0.50510537093910157</v>
+        <v>0.54216499356944992</v>
       </c>
       <c r="I57" s="20">
         <f>[1]!MF_ksep_total_d(E57,H57)</f>
-        <v>0.66696646049663388</v>
+        <v>0.69315960823790324</v>
       </c>
     </row>
     <row r="58" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>

--- a/excercises/excercises/60.MF Separator.xlsx
+++ b/excercises/excercises/60.MF Separator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75313CF0-838B-4D49-86AC-E7E48927BE52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC86EFF-2B4A-4251-934D-6D426DEF26AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Separation" sheetId="110" r:id="rId1"/>
@@ -4034,8 +4034,8 @@
   </sheetPr>
   <dimension ref="A1:T160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.9</v>
+        <v>7.10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="C25" s="18" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,900;gamma_oil:0,875;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:120,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0,900;gamma_oil:0,875;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:120,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
